--- a/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_3.xlsx
+++ b/Data/_testMultiChannelSWV/DPV Analysis/Analysis Files/10-0_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,100 +477,88 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.03450642857142861</v>
+        <v>0.05023428571428577</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.03450642857142861</v>
+        <v>0.05023428571428577</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.252</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.008749761904761899</v>
+        <v>0.6449411602951044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.04054309523809526</v>
+        <v>0.05047095238095242</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.03484083333333337</v>
+        <v>0.05047095238095242</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.005702261904761891</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.008610357142857135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.04323809523809526</v>
+        <v>0.05056809523809527</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.03517523809523813</v>
+        <v>0.05056809523809527</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.008062857142857122</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.252</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.648241428571429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.04383809523809527</v>
+        <v>0.05057238095238099</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.03550964285714289</v>
+        <v>0.05057238095238099</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.008328452380952381</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>9.642857142860839e-06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0438514285714286</v>
+        <v>0.05052809523809527</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.03584404761904766</v>
+        <v>0.05052809523809527</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.008007380952380939</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -578,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.04441428571428574</v>
+        <v>0.05047380952380956</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.03617845238095242</v>
+        <v>0.05047380952380956</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.008235833333333317</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -595,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.04494428571428574</v>
+        <v>0.05050285714285717</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.03651285714285718</v>
+        <v>0.05050285714285717</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.008431428571428562</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.04538857142857146</v>
+        <v>0.05073095238095242</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.03684726190476195</v>
+        <v>0.05073095238095242</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.008541309523809514</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0459314285714286</v>
+        <v>0.05118428571428574</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.0371816666666667</v>
+        <v>0.05098285043594906</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.008749761904761899</v>
+        <v>0.0002014352783366799</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.04622714285714289</v>
+        <v>0.05182904761904765</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.03751607142857147</v>
+        <v>0.05123474849094571</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.008711071428571422</v>
+        <v>0.0005942991281019383</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.04648285714285717</v>
+        <v>0.05280571428571432</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.03785047619047623</v>
+        <v>0.05148664654594236</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.008632380952380947</v>
+        <v>0.001319067739771959</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.04661857142857146</v>
+        <v>0.05400571428571432</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.03818488095238099</v>
+        <v>0.051738544600939</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.00843369047619047</v>
+        <v>0.002267169684775319</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.04685809523809527</v>
+        <v>0.05551523809523813</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.03851928571428576</v>
+        <v>0.05199044265593565</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.008338809523809512</v>
+        <v>0.003524795439302481</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.04713333333333336</v>
+        <v>0.05741428571428576</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.03885369047619051</v>
+        <v>0.0522423407109323</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.008279642857142847</v>
+        <v>0.005171945003353461</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.04747857142857147</v>
+        <v>0.05977761904761909</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.03918809523809528</v>
+        <v>0.05249423876592894</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.008290476190476188</v>
+        <v>0.007283380281690149</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.04778000000000003</v>
+        <v>0.06284952380952386</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.03952250000000004</v>
+        <v>0.05274613682092559</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.008257499999999994</v>
+        <v>0.01010338698859826</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.04811857142857145</v>
+        <v>0.06690904761904767</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.0398569047619048</v>
+        <v>0.05299803487592224</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.008261666666666653</v>
+        <v>0.01391101274312544</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.0484966666666667</v>
+        <v>0.0722576190476191</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.04019130952380956</v>
+        <v>0.05324993293091888</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.008305357142857142</v>
+        <v>0.01900768611670021</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.04894904761904766</v>
+        <v>0.07950047619047623</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.04052571428571432</v>
+        <v>0.05350183098591553</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.008423333333333331</v>
+        <v>0.0259986452045607</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.04947047619047622</v>
+        <v>0.0886385714285715</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.04086011904761909</v>
+        <v>0.05375372904091218</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.008610357142857135</v>
+        <v>0.03488484238765932</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.04966904761904765</v>
+        <v>0.1004038095238096</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.04119452380952385</v>
+        <v>0.05400562709590882</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.0084745238095238</v>
+        <v>0.04639818242790077</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.04991000000000002</v>
+        <v>0.1154704761904762</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.04152892857142861</v>
+        <v>0.05425752515090547</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.008381071428571411</v>
+        <v>0.06121295103957078</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.05011952380952384</v>
+        <v>0.134604761904762</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.04186333333333337</v>
+        <v>0.05450942320590212</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.008256190476190473</v>
+        <v>0.08009533869885986</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.05013000000000004</v>
+        <v>0.1585952380952382</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.04219773809523814</v>
+        <v>0.05476132126089876</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.0079322619047619</v>
+        <v>0.1038339168343394</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.05032285714285718</v>
+        <v>0.187852380952381</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.0425321428571429</v>
+        <v>0.05501321931589542</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.007790714285714276</v>
+        <v>0.1328391616364856</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.05052380952380955</v>
+        <v>0.2224476190476192</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.04286654761904766</v>
+        <v>0.05526511737089206</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.007657261904761896</v>
+        <v>0.1671825016767271</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.05050333333333337</v>
+        <v>0.2622523809523811</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.04320095238095242</v>
+        <v>0.0555170154258887</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.007302380952380949</v>
+        <v>0.2067353655264924</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.05057238095238099</v>
+        <v>0.3066952380952384</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.04353535714285718</v>
+        <v>0.05576891348088535</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.007037023809523806</v>
+        <v>0.250926324614353</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.05052809523809527</v>
+        <v>0.3550095238095241</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.04386976190476195</v>
+        <v>0.056020811535882</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.006658333333333329</v>
+        <v>0.298988712273642</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.05047380952380956</v>
+        <v>0.405914285714286</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.04420416666666671</v>
+        <v>0.05627270959087865</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.006269642857142849</v>
+        <v>0.3496415761234073</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.05050285714285717</v>
+        <v>0.4579095238095241</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.04453857142857147</v>
+        <v>0.0565246076458753</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.0059642857142857</v>
+        <v>0.4013849161636488</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.05073095238095242</v>
+        <v>0.5093380952380956</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.04487297619047623</v>
+        <v>0.05677650570087194</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.005857976190476184</v>
+        <v>0.4525615895372236</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.05118428571428574</v>
+        <v>0.5583476190476194</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.04520738095238099</v>
+        <v>0.05702840375586859</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.005976904761904753</v>
+        <v>0.5013192152917508</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.05182904761904765</v>
+        <v>0.6026809523809528</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.04554178571428576</v>
+        <v>0.05728030181086523</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.006287261904761893</v>
+        <v>0.5454006505700876</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.05280571428571432</v>
+        <v>0.6407761904761908</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.04587619047619051</v>
+        <v>0.05753219986586188</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.006929523809523802</v>
+        <v>0.5832439906103289</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.05400571428571432</v>
+        <v>0.6707476190476195</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.04621059523809528</v>
+        <v>0.05778409792085853</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.007795119047619044</v>
+        <v>0.612963521126761</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.05551523809523813</v>
+        <v>0.6914952380952386</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.04654500000000004</v>
+        <v>0.05803599597585517</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.008970238095238087</v>
+        <v>0.6334592421193834</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.05741428571428576</v>
+        <v>0.7023428571428576</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.0468794047619048</v>
+        <v>0.05828789403085182</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.01053488095238096</v>
+        <v>0.6440549631120058</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.05977761904761909</v>
+        <v>0.7034809523809529</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.04721380952380957</v>
+        <v>0.05853979208584847</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.01256380952380953</v>
+        <v>0.6449411602951044</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.06284952380952386</v>
+        <v>0.6954476190476194</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.04754821428571433</v>
+        <v>0.05879169014084511</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.01530130952380952</v>
+        <v>0.6366559289067744</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.06690904761904767</v>
+        <v>0.680019047619048</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.04788261904761909</v>
+        <v>0.05904358819584176</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.01902642857142858</v>
+        <v>0.6209754594232062</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.0722576190476191</v>
+        <v>0.6589857142857147</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.04821702380952386</v>
+        <v>0.05929548625083841</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.02404059523809524</v>
+        <v>0.5996902280348764</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.07950047619047623</v>
+        <v>0.6347380952380957</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.04855142857142861</v>
+        <v>0.05954738430583506</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.03094904761904762</v>
+        <v>0.5751907109322606</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.0886385714285715</v>
+        <v>0.6098000000000005</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.04888583333333338</v>
+        <v>0.05979928236083171</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.03975273809523812</v>
+        <v>0.5500007176391688</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.1004038095238096</v>
+        <v>0.58562380952381</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.04922023809523814</v>
+        <v>0.06005118041582835</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.05118357142857145</v>
+        <v>0.5255726291079816</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.1154704761904762</v>
+        <v>0.5634809523809529</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.0495546428571429</v>
+        <v>0.060303078470825</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.06591583333333334</v>
+        <v>0.5031778739101278</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.134604761904762</v>
+        <v>0.5434904761904766</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.04988904761904767</v>
+        <v>0.06055497652582164</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.08471571428571431</v>
+        <v>0.482935499664655</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.1585952380952382</v>
+        <v>0.5251285714285718</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.05022345238095242</v>
+        <v>0.06080687458081829</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.1083717857142858</v>
+        <v>0.4643216968477535</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.187852380952381</v>
+        <v>0.5071857142857146</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.05055785714285718</v>
+        <v>0.06105877263581493</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.1372945238095239</v>
+        <v>0.4461269416498996</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.2224476190476192</v>
+        <v>0.4884571428571432</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.05089226190476195</v>
+        <v>0.06131067069081158</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.1715553571428572</v>
+        <v>0.4271464721663316</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.2622523809523811</v>
+        <v>0.467166666666667</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.05122666666666671</v>
+        <v>0.06156256874580823</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.2110257142857144</v>
+        <v>0.4056040979208588</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.3066952380952384</v>
+        <v>0.4425523809523813</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.05156107142857147</v>
+        <v>0.06181446680080488</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.2551341666666669</v>
+        <v>0.3807379141515764</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.3550095238095241</v>
+        <v>0.4143190476190479</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.05189547619047623</v>
+        <v>0.06206636485580153</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.3031140476190478</v>
+        <v>0.3522526827632464</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.405914285714286</v>
+        <v>0.3829428571428574</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.052229880952381</v>
+        <v>0.06231826291079817</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.353684404761905</v>
+        <v>0.3206245942320592</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.4579095238095241</v>
+        <v>0.3492809523809526</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.05256428571428576</v>
+        <v>0.06257016096579482</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.4053452380952384</v>
+        <v>0.2867107914151578</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.5093380952380956</v>
+        <v>0.3145904761904764</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.05289869047619052</v>
+        <v>0.06282205902079147</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.4564394047619051</v>
+        <v>0.251768417169685</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.5583476190476194</v>
+        <v>0.2798714285714288</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.05323309523809529</v>
+        <v>0.06307395707578811</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.5051145238095242</v>
+        <v>0.2167974714956407</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.6026809523809528</v>
+        <v>0.2462238095238097</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.05356750000000005</v>
+        <v>0.06332585513078476</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.5491134523809527</v>
+        <v>0.1828979543930249</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.6407761904761908</v>
+        <v>0.2146809523809525</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.0539019047619048</v>
+        <v>0.0635777531857814</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.586874285714286</v>
+        <v>0.1511031991951711</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.6707476190476195</v>
+        <v>0.1860619047619049</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.05423630952380957</v>
+        <v>0.06382965124077805</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.6165113095238099</v>
+        <v>0.1222322535211268</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.6914952380952386</v>
+        <v>0.1610285714285715</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.05457071428571433</v>
+        <v>0.0640815492957747</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.6369245238095242</v>
+        <v>0.09694702213279682</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.7023428571428576</v>
+        <v>0.1398114285714287</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.05490511904761909</v>
+        <v>0.06433344735077134</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.6474377380952385</v>
+        <v>0.07547798122065733</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.7034809523809529</v>
+        <v>0.1221680952380953</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.05523952380952386</v>
+        <v>0.06458534540576799</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.648241428571429</v>
+        <v>0.05758274983232733</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.6954476190476194</v>
+        <v>0.1079152380952382</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.05557392857142862</v>
+        <v>0.06483724346076464</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.6398736904761908</v>
+        <v>0.04307799463447354</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.680019047619048</v>
+        <v>0.09673904761904768</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.05590833333333338</v>
+        <v>0.06508914151576128</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.6241107142857146</v>
+        <v>0.0316499061032864</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.6589857142857147</v>
+        <v>0.08814476190476198</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.05624273809523814</v>
+        <v>0.06534103957075793</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.6027429761904766</v>
+        <v>0.02280372233400405</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.6347380952380957</v>
+        <v>0.08180714285714291</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.05657714285714291</v>
+        <v>0.06559293762575458</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.5781609523809528</v>
+        <v>0.01621420523138833</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.6098000000000005</v>
+        <v>0.07714952380952386</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.05691154761904767</v>
+        <v>0.06584483568075122</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.5528884523809527</v>
+        <v>0.01130468812877264</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.58562380952381</v>
+        <v>0.07375476190476195</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.05724595238095243</v>
+        <v>0.06609673373574787</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.5283778571428576</v>
+        <v>0.007658028169014078</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.5634809523809529</v>
+        <v>0.07135047619047624</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.05758035714285719</v>
+        <v>0.06634863179074452</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.5059005952380957</v>
+        <v>0.005001844399731725</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.5434904761904766</v>
+        <v>0.06954428571428577</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.05791476190476195</v>
+        <v>0.06660052984574116</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.4855757142857147</v>
+        <v>0.002943755868544604</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.5251285714285718</v>
+        <v>0.06838000000000005</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.05824916666666671</v>
+        <v>0.06685242790073781</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.4668794047619051</v>
+        <v>0.001527572099262242</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.5071857142857146</v>
+        <v>0.06767000000000004</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.05858357142857147</v>
+        <v>0.06710432595573446</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.4486021428571431</v>
+        <v>0.0005656740442655794</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.4884571428571432</v>
+        <v>0.06722857142857147</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.05891797619047624</v>
+        <v>0.0673562240107311</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.429539166666667</v>
+        <v>-0.0001276525821596319</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.467166666666667</v>
+        <v>0.06715333333333337</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.059252380952381</v>
+        <v>0.06760812206572775</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.407914285714286</v>
+        <v>-0.0004547887323943789</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.4425523809523813</v>
+        <v>0.06744285714285719</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.05958678571428576</v>
+        <v>0.0678600201207244</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.3829655952380955</v>
+        <v>-0.0004171629778672026</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>0.4143190476190479</v>
+        <v>0.06778190476190481</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>0.05992119047619052</v>
+        <v>0.06811191817572104</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.3543978571428574</v>
+        <v>-0.0003300134138162353</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.3829428571428574</v>
+        <v>0.06829095238095242</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>0.06025559523809529</v>
+        <v>0.06836381623071769</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.322687261904762</v>
+        <v>-7.28638497652645e-05</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>0.3492809523809526</v>
+        <v>0.06861571428571434</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>0.06059000000000005</v>
+        <v>0.06861571428571434</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0.2886909523809525</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>0.3145904761904764</v>
+        <v>0.068962380952381</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>0.06092440476190481</v>
+        <v>0.068962380952381</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.2536660714285716</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>0.2798714285714288</v>
+        <v>0.06939952380952386</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>0.06125880952380958</v>
+        <v>0.06939952380952386</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.2186126190476192</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>0.2462238095238097</v>
+        <v>0.070182380952381</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>0.06159321428571433</v>
+        <v>0.070182380952381</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.1846305952380953</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>0.2146809523809525</v>
+        <v>0.07114523809523814</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>0.06192761904761909</v>
+        <v>0.07114523809523814</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0.1527533333333334</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.1860619047619049</v>
+        <v>0.07209666666666671</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>0.06226202380952386</v>
+        <v>0.07209666666666671</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.123799880952381</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>0.1610285714285715</v>
+        <v>0.07285476190476195</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>0.06259642857142862</v>
+        <v>0.07285476190476195</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.0984321428571429</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>0.1398114285714287</v>
+        <v>0.07382142857142862</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>0.06293083333333338</v>
+        <v>0.07382142857142862</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.07688059523809529</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>0.1221680952380953</v>
+        <v>0.07466857142857149</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>0.06326523809523814</v>
+        <v>0.07466857142857149</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.05890285714285719</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>0.1079152380952382</v>
+        <v>0.07582333333333338</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>0.0635996428571429</v>
+        <v>0.07582333333333338</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.04431559523809528</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>0.09673904761904768</v>
+        <v>0.07707142857142862</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>0.06393404761904767</v>
+        <v>0.07707142857142862</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.03280500000000001</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>0.08814476190476198</v>
+        <v>0.07823428571428577</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>0.06426845238095243</v>
+        <v>0.07823428571428577</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.02387630952380955</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>0.08180714285714291</v>
+        <v>0.07949857142857149</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>0.06460285714285718</v>
+        <v>0.07949857142857149</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.01720428571428573</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2028,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>0.07714952380952386</v>
+        <v>0.08079142857142863</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>0.06493726190476196</v>
+        <v>0.08079142857142863</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.01221226190476191</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2045,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>0.07375476190476195</v>
+        <v>0.08193285714285721</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>0.06527166666666671</v>
+        <v>0.08193285714285721</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.008483095238095234</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2062,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>0.07135047619047624</v>
+        <v>0.08326523809523816</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>0.06560607142857147</v>
+        <v>0.08326523809523816</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.00574440476190477</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2079,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>0.06954428571428577</v>
+        <v>0.084452380952381</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>0.06594047619047624</v>
+        <v>0.084452380952381</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.003603809523809523</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2096,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.06838000000000005</v>
+        <v>0.08559904761904769</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>0.066274880952381</v>
+        <v>0.08559904761904769</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.00210511904761905</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2113,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>0.06767000000000004</v>
+        <v>0.08697476190476194</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>0.06660928571428576</v>
+        <v>0.08697476190476194</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.001060714285714276</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2130,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>0.06722857142857147</v>
+        <v>0.08844428571428577</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>0.06694369047619053</v>
+        <v>0.08844428571428577</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.0002848809523809392</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2147,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>0.06715333333333337</v>
+        <v>0.09011309523809534</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>0.06727809523809529</v>
+        <v>0.09011309523809534</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.0001247619047619192</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2164,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>0.06744285714285719</v>
+        <v>0.09185523809523825</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>0.06761250000000005</v>
+        <v>0.09185523809523825</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.0001696428571428543</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,428 +2181,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>0.06778190476190481</v>
+        <v>0.09360404761904778</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>0.06794690476190482</v>
+        <v>0.09360404761904778</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.0001650000000000124</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>0.06829095238095242</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>0.06828130952380956</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>9.642857142860839e-06</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>0.06861571428571434</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>0.06861571428571434</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>0.068962380952381</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>0.068962380952381</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>0.06939952380952386</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>0.06939952380952386</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>0.070182380952381</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>0.070182380952381</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>0.07114523809523814</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>0.07114523809523814</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>0.07209666666666671</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>0.07209666666666671</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>0.07285476190476195</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>0.07285476190476195</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>0.07382142857142862</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>0.07382142857142862</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>0.07466857142857149</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>0.07466857142857149</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>0.07582333333333338</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>0.07582333333333338</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>0.07707142857142862</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>0.07707142857142862</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>0.07823428571428577</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>0.07823428571428577</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>0.07949857142857149</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>0.07949857142857149</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>0.08079142857142863</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>0.08079142857142863</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>0.08193285714285721</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>0.08193285714285721</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>0.08326523809523816</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>0.08326523809523816</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>0.084452380952381</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>0.084452380952381</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>0.08559904761904769</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>0.08559904761904769</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>0.08697476190476194</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>0.08697476190476194</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>0.08844428571428577</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>0.08844428571428577</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>0.09011309523809534</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>0.09011309523809534</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>0.09185523809523825</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>0.09185523809523825</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>0.09360404761904778</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>0.09360404761904778</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2627,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2653,34 +2233,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.252</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.008749761904761899</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.008610357142857135</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.252</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.648241428571429</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>9.642857142860839e-06</v>
+        <v>0.6449411602951044</v>
       </c>
     </row>
   </sheetData>
